--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -6,7 +6,7 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="table" sheetId="1" r:id="rId3"/>
+    <sheet name="master_item_base" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4862" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4862" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5148" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5148" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">W001</t>
+    <t xml:space="preserve">ITEM_W001</t>
   </si>
   <si>
     <t xml:space="preserve">Colt45</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">102</t>
   </si>
   <si>
-    <t xml:space="preserve">W002</t>
+    <t xml:space="preserve">ITEM_W002</t>
   </si>
   <si>
     <t xml:space="preserve">Ak47</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">103</t>
   </si>
   <si>
-    <t xml:space="preserve">W003</t>
+    <t xml:space="preserve">ITEM_W003</t>
   </si>
   <si>
     <t xml:space="preserve">Aug</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">201</t>
   </si>
   <si>
-    <t xml:space="preserve">D001</t>
+    <t xml:space="preserve">ITEM_D001</t>
   </si>
   <si>
     <t xml:space="preserve">경찰조끼</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">202</t>
   </si>
   <si>
-    <t xml:space="preserve">D002</t>
+    <t xml:space="preserve">ITEM_D002</t>
   </si>
   <si>
     <t xml:space="preserve">방탄조끼</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">203</t>
   </si>
   <si>
-    <t xml:space="preserve">D003</t>
+    <t xml:space="preserve">ITEM_D003</t>
   </si>
   <si>
     <t xml:space="preserve">군용조끼</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">301</t>
   </si>
   <si>
-    <t xml:space="preserve">B001</t>
+    <t xml:space="preserve">ITEM_B001</t>
   </si>
   <si>
     <t xml:space="preserve">의약품가방</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">302</t>
   </si>
   <si>
-    <t xml:space="preserve">B002</t>
+    <t xml:space="preserve">ITEM_B002</t>
   </si>
   <si>
     <t xml:space="preserve">군대가방</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">303</t>
   </si>
   <si>
-    <t xml:space="preserve">B003</t>
+    <t xml:space="preserve">ITEM_B003</t>
   </si>
   <si>
     <t xml:space="preserve">군용더블백</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">401</t>
   </si>
   <si>
-    <t xml:space="preserve">R001</t>
+    <t xml:space="preserve">ITEM_R001</t>
   </si>
   <si>
     <t xml:space="preserve">의약품상자</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">402</t>
   </si>
   <si>
-    <t xml:space="preserve">R002</t>
+    <t xml:space="preserve">ITEM_R002</t>
   </si>
   <si>
     <t xml:space="preserve">밴드</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">403</t>
   </si>
   <si>
-    <t xml:space="preserve">R003</t>
+    <t xml:space="preserve">ITEM_R003</t>
   </si>
   <si>
     <t xml:space="preserve">아드레날린</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">600</t>
   </si>
   <si>
-    <t xml:space="preserve">IconR_Adrenaline</t>
+    <t xml:space="preserve">IconR_adrenaline</t>
   </si>
   <si>
     <t xml:space="preserve">404</t>
   </si>
   <si>
-    <t xml:space="preserve">R004</t>
+    <t xml:space="preserve">ITEM_R004</t>
   </si>
   <si>
     <t xml:space="preserve">알약</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">501</t>
   </si>
   <si>
-    <t xml:space="preserve">E001</t>
+    <t xml:space="preserve">ITEM_E001</t>
   </si>
   <si>
     <t xml:space="preserve">5.59mm</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">502</t>
   </si>
   <si>
-    <t xml:space="preserve">E002</t>
+    <t xml:space="preserve">ITEM_E002</t>
   </si>
   <si>
     <t xml:space="preserve">7.29mm</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">601</t>
   </si>
   <si>
-    <t xml:space="preserve">S001</t>
+    <t xml:space="preserve">ITEM_S001</t>
   </si>
   <si>
     <t xml:space="preserve">타이어휠</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">602</t>
   </si>
   <si>
-    <t xml:space="preserve">S002</t>
+    <t xml:space="preserve">ITEM_S002</t>
   </si>
   <si>
     <t xml:space="preserve">1.5볼트건전지</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">603</t>
   </si>
   <si>
-    <t xml:space="preserve">S003</t>
+    <t xml:space="preserve">ITEM_S003</t>
   </si>
   <si>
     <t xml:space="preserve">밧줄한묶음</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">604</t>
   </si>
   <si>
-    <t xml:space="preserve">S004</t>
+    <t xml:space="preserve">ITEM_S004</t>
   </si>
   <si>
     <t xml:space="preserve">은도금톱니바퀴</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">605</t>
   </si>
   <si>
-    <t xml:space="preserve">S005</t>
+    <t xml:space="preserve">ITEM_S005</t>
   </si>
   <si>
     <t xml:space="preserve">금괴</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">606</t>
   </si>
   <si>
-    <t xml:space="preserve">S006</t>
+    <t xml:space="preserve">ITEM_S006</t>
   </si>
   <si>
     <t xml:space="preserve">통나무</t>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="148">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t xml:space="preserve">IconS_solidwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_B000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기본가방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -786,54 +795,54 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>42</v>
@@ -842,7 +851,7 @@
         <v>64</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>16</v>
@@ -851,39 +860,39 @@
         <v>16</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>16</v>
@@ -892,80 +901,80 @@
         <v>16</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>81</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>21</v>
@@ -974,30 +983,30 @@
         <v>21</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>82</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>88</v>
@@ -1006,7 +1015,7 @@
         <v>81</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>21</v>
@@ -1015,30 +1024,30 @@
         <v>21</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>82</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>88</v>
@@ -1047,7 +1056,7 @@
         <v>81</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>21</v>
@@ -1056,39 +1065,39 @@
         <v>21</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>82</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>21</v>
@@ -1097,30 +1106,30 @@
         <v>21</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>90</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>106</v>
@@ -1129,7 +1138,7 @@
         <v>107</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>21</v>
@@ -1150,153 +1159,153 @@
         <v>90</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="J17" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="L17" s="0" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>119</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>110</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>110</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>119</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>42</v>
@@ -1305,83 +1314,83 @@
         <v>110</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>119</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>110</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>119</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>110</v>
@@ -1390,12 +1399,53 @@
         <v>19</v>
       </c>
       <c r="K22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="L22" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="0" t="s">
+      <c r="L23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="0" t="s">
         <v>144</v>
       </c>
     </row>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="148">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
@@ -197,6 +197,24 @@
     <t xml:space="preserve">IconD_military</t>
   </si>
   <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_B000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기본가방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
     <t xml:space="preserve">301</t>
   </si>
   <si>
@@ -206,9 +224,6 @@
     <t xml:space="preserve">의약품가방</t>
   </si>
   <si>
-    <t xml:space="preserve">Bag</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4</t>
   </si>
   <si>
@@ -317,9 +332,6 @@
     <t xml:space="preserve">알약</t>
   </si>
   <si>
-    <t xml:space="preserve">300</t>
-  </si>
-  <si>
     <t xml:space="preserve">IconR_pill</t>
   </si>
   <si>
@@ -344,9 +356,6 @@
     <t xml:space="preserve">0.4</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">IconE_5.59</t>
   </si>
   <si>
@@ -447,15 +456,6 @@
   </si>
   <si>
     <t xml:space="preserve">IconS_solidwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_B000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기본가방</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
   </si>
 </sst>
 </file>
@@ -795,63 +795,63 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>16</v>
@@ -863,36 +863,36 @@
         <v>30</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>16</v>
@@ -904,7 +904,7 @@
         <v>51</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>52</v>
@@ -913,27 +913,27 @@
         <v>21</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>16</v>
@@ -942,39 +942,39 @@
         <v>16</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>21</v>
@@ -986,36 +986,36 @@
         <v>30</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>21</v>
@@ -1027,36 +1027,36 @@
         <v>20</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>88</v>
-      </c>
       <c r="E14" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>21</v>
@@ -1065,39 +1065,39 @@
         <v>21</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>21</v>
@@ -1109,37 +1109,37 @@
         <v>30</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="G16" s="0" t="s">
         <v>21</v>
       </c>
@@ -1147,80 +1147,80 @@
         <v>21</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="J17" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="K17" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>27</v>
@@ -1229,39 +1229,39 @@
         <v>27</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>21</v>
@@ -1270,39 +1270,39 @@
         <v>16</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>21</v>
@@ -1311,10 +1311,10 @@
         <v>42</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>30</v>
@@ -1323,27 +1323,27 @@
         <v>21</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>42</v>
@@ -1352,39 +1352,39 @@
         <v>42</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>29</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>16</v>
@@ -1393,39 +1393,39 @@
         <v>21</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>16</v>
@@ -1434,19 +1434,19 @@
         <v>16</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="148">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
@@ -197,163 +197,154 @@
     <t xml:space="preserve">IconD_military</t>
   </si>
   <si>
+    <t xml:space="preserve">301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_B001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">의약품가방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconB_medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_B002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">군대가방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconB_army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_B003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">군용더블백</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconB_double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_R001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">의약품상자</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconR_medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_R002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밴드</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconR_band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_R003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아드레날린</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconR_adrenaline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_R004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">알약</t>
+  </si>
+  <si>
     <t xml:space="preserve">300</t>
   </si>
   <si>
-    <t xml:space="preserve">ITEM_B000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기본가방</t>
+    <t xml:space="preserve">IconR_pill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_E001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_B001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의약품가방</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconB_medical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_B002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">군대가방</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconB_army</t>
-  </si>
-  <si>
-    <t xml:space="preserve">303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_B003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">군용더블백</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconB_double</t>
-  </si>
-  <si>
-    <t xml:space="preserve">401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_R001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">의약품상자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconR_medical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_R002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">밴드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconR_band</t>
-  </si>
-  <si>
-    <t xml:space="preserve">403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_R003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아드레날린</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconR_adrenaline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_R004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">알약</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IconR_pill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITEM_E001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
   </si>
   <si>
     <t xml:space="preserve">IconE_5.59</t>
@@ -500,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -804,178 +795,178 @@
         <v>63</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="K9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="K10" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="G12" s="0" t="s">
         <v>21</v>
       </c>
@@ -983,40 +974,40 @@
         <v>21</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="G13" s="0" t="s">
         <v>21</v>
       </c>
@@ -1024,40 +1015,40 @@
         <v>21</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="G14" s="0" t="s">
         <v>21</v>
       </c>
@@ -1065,16 +1056,16 @@
         <v>21</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>101</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>102</v>
@@ -1091,10 +1082,10 @@
         <v>105</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>103</v>
@@ -1106,347 +1097,306 @@
         <v>21</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="F16" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="K16" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="L16" s="0" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="G17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="J17" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="G19" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="G21" s="0" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="G22" s="0" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>19</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="145">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="148">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="148">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>

--- a/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
+++ b/GSO_Client/Assets/StreamingAssets/master_item_base.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="185">
   <si>
     <t xml:space="preserve">item_id</t>
   </si>
@@ -456,6 +456,117 @@
   </si>
   <si>
     <t xml:space="preserve">IconS_solidwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_W004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DP-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconW_dp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_D004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방한조끼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconD_cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_B004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">학원가방</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconB_academy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_S007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">헤드셋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconS_headset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_S008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핸드폰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconS_phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_S009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방독면</t>
+  </si>
+  <si>
+    <t xml:space="preserve">880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconS_mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_S010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">망원경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IconS_telescope</t>
   </si>
 </sst>
 </file>
@@ -500,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
@@ -672,63 +783,63 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L5" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>16</v>
@@ -737,39 +848,39 @@
         <v>42</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>16</v>
@@ -778,162 +889,162 @@
         <v>42</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="I9" s="0" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>16</v>
@@ -942,162 +1053,162 @@
         <v>16</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>70</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>21</v>
@@ -1112,33 +1223,33 @@
         <v>87</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>21</v>
@@ -1147,39 +1258,39 @@
         <v>21</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>95</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>21</v>
@@ -1188,209 +1299,209 @@
         <v>21</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="L19" s="0" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="L20" s="0" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>122</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>64</v>
@@ -1399,54 +1510,341 @@
         <v>19</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>64</v>
       </c>
       <c r="J23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K25" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="0" t="s">
+      <c r="L26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="0" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
